--- a/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,161 +483,159 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.18.2</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>28863</v>
+        <v>1030</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.18.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.1.1</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>581</v>
+        <v>9599</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.0.5</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1453</v>
+        <v>1309</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.18.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2594</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.50.1.1</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>72</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>33491</v>
-      </c>
-    </row>
-    <row r="8"/>
-    <row r="9"/>
+      <c r="B9" s="5" t="n">
+        <v>127</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11988</v>
+      </c>
+    </row>
     <row r="10"/>
     <row r="11"/>
     <row r="12"/>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Adapter-Driver</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>Total Samples</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>Good Roaming Calculation (%)</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>Driver Vintage</t>
         </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>269022</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.50.1.6</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>29259</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.8.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>13028</v>
+        <v>96526</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E17" s="4" t="n">
         <v/>
@@ -646,258 +644,236 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>392601</v>
+        <v>328411</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+      <c r="E18" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.50.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>19910</v>
+        <v>143808</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>10661</v>
+        <v>287148</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>14239</v>
+        <v>69578</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-23</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>254702</v>
+        <v>10661</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>117934</v>
+        <v>56018</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2021-09-11</t>
-        </is>
+      <c r="E23" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>16089</v>
+        <v>34244</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2021-09-11</t>
-        </is>
+      <c r="E24" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>74604</v>
+        <v>67111</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>33050</v>
+        <v>13016</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
-        </is>
+      <c r="E26" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>59673</v>
+        <v>10456</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
-        </is>
+      <c r="E27" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.30.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>179007</v>
+        <v>288399</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>2020-06-01</t>
-        </is>
+      <c r="E28" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.29.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>39767</v>
+        <v>442178</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>107862</v>
+        <v>18721</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>35023</v>
+        <v>66577</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
@@ -905,18 +881,18 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2024-05-09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>56018</v>
+        <v>17529</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -924,37 +900,37 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2023-09-13</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>173128</v>
+        <v>14239</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>127188</v>
+        <v>265400</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -962,18 +938,18 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.14.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>112242</v>
+        <v>123675</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -981,15 +957,205 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2018-05-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
+          <t>2021-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>77849</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="n">
+        <v>26241</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>15730</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>59673</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>113652</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>88435</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>180575</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="n">
+        <v>46270</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="n">
+        <v>138724</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>2018-11-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="n">
+        <v>35023</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>2018-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,49 +483,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.18.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.0.5</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1030</v>
+        <v>2330</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>98.2</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.18.2</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9599</v>
+        <v>1064</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.1.1</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1309</v>
+        <v>8902</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.8</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="6">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>98.8</v>
@@ -563,96 +563,95 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>98.90000000000001</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.50.1.1</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>127</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>11988</v>
-      </c>
-    </row>
-    <row r="10"/>
+      <c r="B10" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>12340</v>
+      </c>
+    </row>
     <row r="11"/>
     <row r="12"/>
     <row r="13"/>
     <row r="14"/>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Adapter-Driver</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>Total Samples</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>Good Roaming Calculation (%)</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Driver Vintage</t>
         </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>96526</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>328411</v>
+        <v>292215</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E18" s="4" t="n">
         <v/>
@@ -661,35 +660,39 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>143808</v>
+        <v>445055</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E19" s="4" t="n">
-        <v/>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>287148</v>
+        <v>18721</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E20" s="4" t="n">
-        <v/>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -705,137 +708,153 @@
       <c r="D21" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v/>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>10661</v>
+        <v>329845</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>56018</v>
+        <v>143808</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>34244</v>
+        <v>287148</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>67111</v>
+        <v>10456</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E25" s="4" t="n">
-        <v/>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>13016</v>
+        <v>10661</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E26" s="4" t="n">
-        <v/>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>10456</v>
+        <v>96526</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>288399</v>
+        <v>14239</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E28" s="4" t="n">
-        <v/>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>442178</v>
+        <v>265400</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
@@ -843,37 +862,37 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>18721</v>
+        <v>123675</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2021-09-11</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>66577</v>
+        <v>17529</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
@@ -881,37 +900,37 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2021-09-11</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>17529</v>
+        <v>77849</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>14239</v>
+        <v>34244</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
@@ -919,37 +938,37 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>265400</v>
+        <v>67111</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>123675</v>
+        <v>66577</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -957,18 +976,18 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>77849</v>
+        <v>15734</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -976,18 +995,18 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>26241</v>
+        <v>59673</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -995,37 +1014,37 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>15730</v>
+        <v>113652</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>59673</v>
+        <v>35023</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
@@ -1033,18 +1052,18 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-12-31</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>113652</v>
+        <v>56018</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1059,30 +1078,30 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>88435</v>
+        <v>26241</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>180575</v>
+        <v>88435</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1090,56 +1109,56 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>46270</v>
+        <v>182011</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>138724</v>
+        <v>13016</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>35023</v>
+        <v>46270</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
@@ -1147,15 +1166,34 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2018-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="46"/>
+          <t>2019-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="n">
+        <v>140826</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>2018-11-25</t>
+        </is>
+      </c>
+    </row>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
     <row r="50"/>
+    <row r="51"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,207 +483,204 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2330</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>97.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.18.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.0.5</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1064</v>
+        <v>3344</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8902</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.3</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.18.2</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2</v>
+        <v>1087</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98.8</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.1.1</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8</v>
+        <v>7901</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <v>12</v>
-      </c>
       <c r="D8" s="4" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.50.1.1</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B11" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>12340</v>
-      </c>
-    </row>
-    <row r="11"/>
+      <c r="C11" s="5" t="n">
+        <v>12372</v>
+      </c>
+    </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14"/>
     <row r="15"/>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Adapter-Driver</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>Total Samples</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>Good Roaming Calculation (%)</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>Driver Vintage</t>
         </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>292215</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>445055</v>
+        <v>295999</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>18721</v>
+        <v>449371</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
@@ -691,18 +688,18 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>69578</v>
+        <v>18721</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
@@ -710,18 +707,18 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>329845</v>
+        <v>69578</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
@@ -729,18 +726,18 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>143808</v>
+        <v>331283</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -748,18 +745,18 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>287148</v>
+        <v>143808</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -767,37 +764,37 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>10456</v>
+        <v>287148</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>10661</v>
+        <v>10456</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
@@ -805,94 +802,94 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>96526</v>
+        <v>10661</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>14239</v>
+        <v>96526</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>265400</v>
+        <v>14239</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>123675</v>
+        <v>265400</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>17529</v>
+        <v>123675</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
@@ -907,49 +904,49 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>77849</v>
+        <v>18967</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-09-11</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>34244</v>
+        <v>77999</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>67111</v>
+        <v>34244</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -957,18 +954,18 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>66577</v>
+        <v>67111</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -976,56 +973,56 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>15734</v>
+        <v>66577</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>59673</v>
+        <v>15734</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>113652</v>
+        <v>59673</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
@@ -1033,18 +1030,18 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>35023</v>
+        <v>113652</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
@@ -1052,18 +1049,18 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>56018</v>
+        <v>35023</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1071,18 +1068,18 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>26241</v>
+        <v>56018</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1097,30 +1094,30 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>88435</v>
+        <v>26241</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>182011</v>
+        <v>88435</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
@@ -1128,37 +1125,37 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>13016</v>
+        <v>183447</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>46270</v>
+        <v>13016</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
@@ -1166,34 +1163,53 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>140826</v>
+        <v>46270</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="n">
+        <v>143426</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
         <is>
           <t>2018-11-25</t>
         </is>
       </c>
     </row>
-    <row r="47"/>
     <row r="48"/>
     <row r="49"/>
     <row r="50"/>
     <row r="51"/>
+    <row r="52"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,10 +506,10 @@
         <v>70</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3344</v>
+        <v>3426</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="6">
@@ -538,55 +538,55 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1087</v>
+        <v>1121</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>7901</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.1.1</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>2</v>
+        <v>7759</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>2</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>8</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>98.8</v>
@@ -602,104 +602,101 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>98.8</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>123</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>12372</v>
-      </c>
-    </row>
-    <row r="12"/>
+      <c r="B12" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12348</v>
+      </c>
+    </row>
     <row r="13"/>
     <row r="14"/>
     <row r="15"/>
     <row r="16"/>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Adapter-Driver</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>Total Samples</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>Good Roaming Calculation (%)</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>Driver Vintage</t>
         </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>295999</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>449371</v>
+        <v>295999</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>18721</v>
+        <v>449371</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
@@ -707,18 +704,18 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>69578</v>
+        <v>18721</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
@@ -726,18 +723,18 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>331283</v>
+        <v>69578</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -745,18 +742,18 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>143808</v>
+        <v>331283</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -764,18 +761,18 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>287148</v>
+        <v>143808</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
@@ -783,37 +780,37 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>10456</v>
+        <v>287148</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>10661</v>
+        <v>10456</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
@@ -821,94 +818,94 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>96526</v>
+        <v>10661</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>14239</v>
+        <v>96526</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>265400</v>
+        <v>14239</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>123675</v>
+        <v>265400</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>18967</v>
+        <v>123675</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -923,49 +920,49 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>77999</v>
+        <v>18967</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-09-11</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>34244</v>
+        <v>77999</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>67111</v>
+        <v>34244</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -973,18 +970,18 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>66577</v>
+        <v>67111</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -992,56 +989,56 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>15734</v>
+        <v>66577</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>59673</v>
+        <v>15734</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>113652</v>
+        <v>59673</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
@@ -1049,18 +1046,18 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>35023</v>
+        <v>113652</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1068,18 +1065,18 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>56018</v>
+        <v>35023</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1087,18 +1084,18 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>26241</v>
+        <v>56018</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1113,30 +1110,30 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>88435</v>
+        <v>26241</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>183447</v>
+        <v>88435</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
@@ -1144,37 +1141,37 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>13016</v>
+        <v>183447</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>46270</v>
+        <v>13016</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
@@ -1182,34 +1179,53 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>143426</v>
+        <v>46270</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="n">
+        <v>143426</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>2018-11-25</t>
         </is>
       </c>
     </row>
-    <row r="48"/>
     <row r="49"/>
     <row r="50"/>
     <row r="51"/>
     <row r="52"/>
+    <row r="53"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,81 +483,81 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.40.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.0.5</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1</v>
+        <v>7298</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>87.5</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.18.2</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3426</v>
+        <v>1369</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.18.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>1121</v>
-      </c>
       <c r="D6" s="4" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="8">
@@ -570,133 +570,137 @@
         <v>41</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7759</v>
+        <v>6886</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.50.1.1</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>124</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>12348</v>
-      </c>
-    </row>
+      <c r="B10" s="5" t="n">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>15575</v>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12"/>
     <row r="13"/>
     <row r="14"/>
     <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
+        </is>
+      </c>
+    </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
-        </is>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>323804</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>11128</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>295999</v>
+        <v>486214</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>449371</v>
+        <v>18721</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
@@ -704,18 +708,18 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>18721</v>
+        <v>69578</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
@@ -723,18 +727,18 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>69578</v>
+        <v>338880</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -742,18 +746,18 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>331283</v>
+        <v>143869</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -761,18 +765,18 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>143808</v>
+        <v>287148</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
@@ -780,37 +784,37 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>287148</v>
+        <v>10456</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>10456</v>
+        <v>11140</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
@@ -818,94 +822,94 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>10661</v>
+        <v>96526</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>96526</v>
+        <v>14487</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>14239</v>
+        <v>265400</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>265400</v>
+        <v>123675</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-09-11</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>123675</v>
+        <v>18967</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -920,49 +924,49 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>18967</v>
+        <v>79953</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>77999</v>
+        <v>35355</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>34244</v>
+        <v>67111</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -970,18 +974,18 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>67111</v>
+        <v>68450</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -989,56 +993,56 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>66577</v>
+        <v>15734</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>15734</v>
+        <v>65425</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>59673</v>
+        <v>117653</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
@@ -1046,18 +1050,18 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>113652</v>
+        <v>35023</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1065,18 +1069,18 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-31</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>35023</v>
+        <v>26241</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1084,7 +1088,7 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
@@ -1110,30 +1114,30 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>26241</v>
+        <v>90508</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>88435</v>
+        <v>197997</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
@@ -1141,37 +1145,37 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>183447</v>
+        <v>13016</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>13016</v>
+        <v>52515</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
@@ -1179,53 +1183,34 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2019-04-23</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>46270</v>
+        <v>160536</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
-        </is>
-      </c>
-      <c r="B48" s="6" t="n">
-        <v>143426</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
           <t>2018-11-25</t>
         </is>
       </c>
     </row>
+    <row r="48"/>
     <row r="49"/>
     <row r="50"/>
     <row r="51"/>
     <row r="52"/>
-    <row r="53"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -483,734 +480,3480 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 7260 - 17.15.0.5</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7298</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>91.7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.18.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.0.5</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1369</v>
+        <v>6605</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>97.90000000000001</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.18.2</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7</v>
+        <v>1318</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6886</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.1.1</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>7117</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.40.0.4</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="D10" s="4" t="n">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n">
-        <v>126</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>15575</v>
-      </c>
-    </row>
-    <row r="11"/>
+      <c r="B11" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>15140</v>
+      </c>
+    </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14"/>
     <row r="15"/>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>323804</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v/>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>11128</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>376240</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D19" t="n">
+        <v>582</v>
+      </c>
+      <c r="E19" t="n">
+        <v>594</v>
+      </c>
+      <c r="F19" t="n">
+        <v>377926</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>486214</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1786148</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3309</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1793843</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>18721</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2024-07-23</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7568454</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14989</v>
+      </c>
+      <c r="D21" t="n">
+        <v>13188</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7596631</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>69578</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>290468</v>
+      </c>
+      <c r="C22" t="n">
+        <v>898</v>
+      </c>
+      <c r="D22" t="n">
+        <v>303</v>
+      </c>
+      <c r="E22" t="n">
+        <v>412</v>
+      </c>
+      <c r="F22" t="n">
+        <v>291669</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>338880</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2023-05-08</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.2.1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>214987</v>
+      </c>
+      <c r="C23" t="n">
+        <v>511</v>
+      </c>
+      <c r="D23" t="n">
+        <v>444</v>
+      </c>
+      <c r="E23" t="n">
+        <v>208</v>
+      </c>
+      <c r="F23" t="n">
+        <v>215942</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>20.70.2.1</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2018-08-13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>143869</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.23.1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>826884</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2559</v>
+      </c>
+      <c r="D24" t="n">
+        <v>884</v>
+      </c>
+      <c r="E24" t="n">
+        <v>761</v>
+      </c>
+      <c r="F24" t="n">
+        <v>830327</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>20.70.23.1</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2021-03-20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="n">
-        <v>287148</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>54037</v>
+      </c>
+      <c r="C25" t="n">
+        <v>208</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>54249</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>23.120.0.3</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>10456</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>2022-10-17</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.30.0.6</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>580825</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1091</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1527</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F26" t="n">
+        <v>583443</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>23.30.0.6</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="n">
-        <v>11140</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.60.1.2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4228854</v>
+      </c>
+      <c r="C27" t="n">
+        <v>12120</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5504</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5791</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4246478</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>23.60.1.2</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>96526</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.21.2</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>114623</v>
+      </c>
+      <c r="C28" t="n">
+        <v>182</v>
+      </c>
+      <c r="D28" t="n">
+        <v>243</v>
+      </c>
+      <c r="E28" t="n">
+        <v>192</v>
+      </c>
+      <c r="F28" t="n">
+        <v>115048</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>20.70.21.2</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>14487</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-23</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>17609</v>
+      </c>
+      <c r="C29" t="n">
+        <v>69</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>57</v>
+      </c>
+      <c r="F29" t="n">
+        <v>17678</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>22.180.0.4</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="n">
-        <v>265400</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.110.0.2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3704651</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11842</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1893</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4457</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3718386</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>22.110.0.2</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2021-11-27</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="n">
-        <v>123675</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>2021-09-11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>415263</v>
+      </c>
+      <c r="C31" t="n">
+        <v>488</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1136</v>
+      </c>
+      <c r="E31" t="n">
+        <v>485</v>
+      </c>
+      <c r="F31" t="n">
+        <v>416887</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>18967</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>2021-09-11</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1254472</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4270</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1946</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1259751</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>79953</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>448248</v>
+      </c>
+      <c r="C33" t="n">
+        <v>738</v>
+      </c>
+      <c r="D33" t="n">
+        <v>931</v>
+      </c>
+      <c r="E33" t="n">
+        <v>688</v>
+      </c>
+      <c r="F33" t="n">
+        <v>449917</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>35355</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.110.1.1</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>135485</v>
+      </c>
+      <c r="C34" t="n">
+        <v>325</v>
+      </c>
+      <c r="D34" t="n">
+        <v>203</v>
+      </c>
+      <c r="E34" t="n">
+        <v>205</v>
+      </c>
+      <c r="F34" t="n">
+        <v>136013</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>22.110.1.1</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>67111</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>204134</v>
+      </c>
+      <c r="C35" t="n">
+        <v>775</v>
+      </c>
+      <c r="D35" t="n">
+        <v>52</v>
+      </c>
+      <c r="E35" t="n">
+        <v>319</v>
+      </c>
+      <c r="F35" t="n">
+        <v>204961</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>23.120.0.3</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
-        </is>
-      </c>
-      <c r="B36" s="6" t="n">
-        <v>68450</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>2020-10-19</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>28296</v>
+      </c>
+      <c r="C36" t="n">
+        <v>111</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>61</v>
+      </c>
+      <c r="F36" t="n">
+        <v>28407</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
-        </is>
-      </c>
-      <c r="B37" s="6" t="n">
-        <v>15734</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>2020-09-28</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.50.1.1</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>30421</v>
+      </c>
+      <c r="C37" t="n">
+        <v>124</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>52</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30555</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>21.50.1.1</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="n">
-        <v>65425</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.20.1.1</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>92845</v>
+      </c>
+      <c r="C38" t="n">
+        <v>419</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>114</v>
+      </c>
+      <c r="F38" t="n">
+        <v>93264</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>21.20.1.1</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2019-05-29</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="n">
-        <v>117653</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
-        </is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.5</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>32600</v>
+      </c>
+      <c r="C39" t="n">
+        <v>90</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>50</v>
+      </c>
+      <c r="F39" t="n">
+        <v>32693</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>22.0.1.5</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J39" t="n">
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="n">
-        <v>35023</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-31</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1734330</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2979</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2614</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2960</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1739923</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>22.230.0.8</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B41" s="6" t="n">
-        <v>26241</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.3.3</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1525948</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2540</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1721</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2082</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1530209</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>20.70.3.3</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2018-09-02</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="n">
-        <v>56018</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>77093</v>
+      </c>
+      <c r="C42" t="n">
+        <v>170</v>
+      </c>
+      <c r="D42" t="n">
+        <v>24</v>
+      </c>
+      <c r="E42" t="n">
+        <v>127</v>
+      </c>
+      <c r="F42" t="n">
+        <v>77287</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
-        </is>
-      </c>
-      <c r="B43" s="6" t="n">
-        <v>90508</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>15355</v>
+      </c>
+      <c r="C43" t="n">
+        <v>50</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>62</v>
+      </c>
+      <c r="F43" t="n">
+        <v>15408</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>22.80.1.1</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="n">
-        <v>197997</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>733616</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D44" t="n">
+        <v>507</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F44" t="n">
+        <v>735770</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
-        </is>
-      </c>
-      <c r="B45" s="6" t="n">
-        <v>13016</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>2019-07-29</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>134169</v>
+      </c>
+      <c r="C45" t="n">
+        <v>189</v>
+      </c>
+      <c r="D45" t="n">
+        <v>263</v>
+      </c>
+      <c r="E45" t="n">
+        <v>192</v>
+      </c>
+      <c r="F45" t="n">
+        <v>134621</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>22.110.1.1</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
-        </is>
-      </c>
-      <c r="B46" s="6" t="n">
-        <v>52515</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-23</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>210370</v>
+      </c>
+      <c r="C46" t="n">
+        <v>324</v>
+      </c>
+      <c r="D46" t="n">
+        <v>313</v>
+      </c>
+      <c r="E46" t="n">
+        <v>558</v>
+      </c>
+      <c r="F46" t="n">
+        <v>211007</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>23.70.2.3</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1159949</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D47" t="n">
+        <v>583</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1162878</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>22.170.0.3</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>192287</v>
+      </c>
+      <c r="C48" t="n">
+        <v>421</v>
+      </c>
+      <c r="D48" t="n">
+        <v>70</v>
+      </c>
+      <c r="E48" t="n">
+        <v>390</v>
+      </c>
+      <c r="F48" t="n">
+        <v>192778</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.24.1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>25526</v>
+      </c>
+      <c r="C49" t="n">
+        <v>30</v>
+      </c>
+      <c r="D49" t="n">
+        <v>43</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28</v>
+      </c>
+      <c r="F49" t="n">
+        <v>25599</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>20.70.24.1</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2021-05-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.2.2</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1335506</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2486</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1863</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1463</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1339855</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>21.10.2.2</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J50" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1499724</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4069</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1136</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2789</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1504929</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>330685</v>
+      </c>
+      <c r="C52" t="n">
+        <v>445</v>
+      </c>
+      <c r="D52" t="n">
+        <v>530</v>
+      </c>
+      <c r="E52" t="n">
+        <v>410</v>
+      </c>
+      <c r="F52" t="n">
+        <v>331660</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>22.90.0.5</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>938125</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2222</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E53" t="n">
+        <v>959</v>
+      </c>
+      <c r="F53" t="n">
+        <v>941353</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>22.20.0.6</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2020-11-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 7260 - 18.33.17.1</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>462479</v>
+      </c>
+      <c r="C54" t="n">
+        <v>761</v>
+      </c>
+      <c r="D54" t="n">
+        <v>728</v>
+      </c>
+      <c r="E54" t="n">
+        <v>530</v>
+      </c>
+      <c r="F54" t="n">
+        <v>463968</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 7260</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>18.33.17.1</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2019-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.60.0.6</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>50997</v>
+      </c>
+      <c r="C55" t="n">
+        <v>100</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>62</v>
+      </c>
+      <c r="F55" t="n">
+        <v>51097</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>22.60.0.6</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>140350</v>
+      </c>
+      <c r="C56" t="n">
+        <v>270</v>
+      </c>
+      <c r="D56" t="n">
+        <v>75</v>
+      </c>
+      <c r="E56" t="n">
+        <v>307</v>
+      </c>
+      <c r="F56" t="n">
+        <v>140695</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>57477</v>
+      </c>
+      <c r="C57" t="n">
+        <v>19</v>
+      </c>
+      <c r="D57" t="n">
+        <v>115</v>
+      </c>
+      <c r="E57" t="n">
+        <v>75</v>
+      </c>
+      <c r="F57" t="n">
+        <v>57611</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>230530</v>
+      </c>
+      <c r="C58" t="n">
+        <v>421</v>
+      </c>
+      <c r="D58" t="n">
+        <v>37</v>
+      </c>
+      <c r="E58" t="n">
+        <v>399</v>
+      </c>
+      <c r="F58" t="n">
+        <v>230988</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>67722</v>
+      </c>
+      <c r="C59" t="n">
+        <v>120</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>111</v>
+      </c>
+      <c r="F59" t="n">
+        <v>67843</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>22.140.0.3</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.30.1</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1753550</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2157</v>
+      </c>
+      <c r="D60" t="n">
+        <v>681</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2287</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1756388</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>20.70.30.1</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>95095</v>
+      </c>
+      <c r="C61" t="n">
+        <v>191</v>
+      </c>
+      <c r="D61" t="n">
+        <v>30</v>
+      </c>
+      <c r="E61" t="n">
+        <v>247</v>
+      </c>
+      <c r="F61" t="n">
+        <v>95316</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>22.60.0.6</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1731609</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D62" t="n">
+        <v>656</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1734414</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>22.0.0.6</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.25.2</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>456550</v>
+      </c>
+      <c r="C63" t="n">
+        <v>433</v>
+      </c>
+      <c r="D63" t="n">
+        <v>678</v>
+      </c>
+      <c r="E63" t="n">
+        <v>581</v>
+      </c>
+      <c r="F63" t="n">
+        <v>457661</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>20.70.25.2</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>19654</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="n">
+        <v>30</v>
+      </c>
+      <c r="E64" t="n">
+        <v>36</v>
+      </c>
+      <c r="F64" t="n">
+        <v>19688</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 7260 - 18.33.14.3</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>134485</v>
+      </c>
+      <c r="C65" t="n">
+        <v>80</v>
+      </c>
+      <c r="D65" t="n">
+        <v>142</v>
+      </c>
+      <c r="E65" t="n">
+        <v>158</v>
+      </c>
+      <c r="F65" t="n">
+        <v>134707</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 7260</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>18.33.14.3</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2018-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.120.0.9</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>269204</v>
+      </c>
+      <c r="C66" t="n">
+        <v>337</v>
+      </c>
+      <c r="D66" t="n">
+        <v>146</v>
+      </c>
+      <c r="E66" t="n">
+        <v>632</v>
+      </c>
+      <c r="F66" t="n">
+        <v>269687</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>21.120.0.9</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1296766</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2887</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1299705</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>389283</v>
+      </c>
+      <c r="C68" t="n">
+        <v>428</v>
+      </c>
+      <c r="D68" t="n">
+        <v>216</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1233</v>
+      </c>
+      <c r="F68" t="n">
+        <v>389927</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>63994</v>
+      </c>
+      <c r="C69" t="n">
+        <v>66</v>
+      </c>
+      <c r="D69" t="n">
+        <v>41</v>
+      </c>
+      <c r="E69" t="n">
+        <v>68</v>
+      </c>
+      <c r="F69" t="n">
+        <v>64101</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>21.80.0.4</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>79835</v>
+      </c>
+      <c r="C70" t="n">
+        <v>93</v>
+      </c>
+      <c r="D70" t="n">
+        <v>25</v>
+      </c>
+      <c r="E70" t="n">
+        <v>153</v>
+      </c>
+      <c r="F70" t="n">
+        <v>79953</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>22.80.0.9</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>485568</v>
+      </c>
+      <c r="C71" t="n">
+        <v>468</v>
+      </c>
+      <c r="D71" t="n">
+        <v>178</v>
+      </c>
+      <c r="E71" t="n">
+        <v>568</v>
+      </c>
+      <c r="F71" t="n">
+        <v>486214</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>286753</v>
+      </c>
+      <c r="C72" t="n">
+        <v>288</v>
+      </c>
+      <c r="D72" t="n">
+        <v>107</v>
+      </c>
+      <c r="E72" t="n">
+        <v>309</v>
+      </c>
+      <c r="F72" t="n">
+        <v>287148</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>143738</v>
+      </c>
+      <c r="C73" t="n">
+        <v>67</v>
+      </c>
+      <c r="D73" t="n">
+        <v>64</v>
+      </c>
+      <c r="E73" t="n">
+        <v>187</v>
+      </c>
+      <c r="F73" t="n">
+        <v>143869</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>22.200.0.6</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
         </is>
       </c>
-      <c r="B47" s="6" t="n">
+      <c r="B74" t="n">
+        <v>160395</v>
+      </c>
+      <c r="C74" t="n">
+        <v>31</v>
+      </c>
+      <c r="D74" t="n">
+        <v>110</v>
+      </c>
+      <c r="E74" t="n">
+        <v>173</v>
+      </c>
+      <c r="F74" t="n">
         <v>160536</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" s="4" t="n">
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>20.70.5.2</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>2018-11-25</t>
         </is>
       </c>
     </row>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>96477</v>
+      </c>
+      <c r="C75" t="n">
+        <v>17</v>
+      </c>
+      <c r="D75" t="n">
+        <v>32</v>
+      </c>
+      <c r="E75" t="n">
+        <v>104</v>
+      </c>
+      <c r="F75" t="n">
+        <v>96526</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>22.160.0.4</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>15712</v>
+      </c>
+      <c r="C76" t="n">
+        <v>12</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10</v>
+      </c>
+      <c r="E76" t="n">
+        <v>42</v>
+      </c>
+      <c r="F76" t="n">
+        <v>15734</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>265066</v>
+      </c>
+      <c r="C77" t="n">
+        <v>203</v>
+      </c>
+      <c r="D77" t="n">
+        <v>131</v>
+      </c>
+      <c r="E77" t="n">
+        <v>310</v>
+      </c>
+      <c r="F77" t="n">
+        <v>265400</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>22.100.1.1</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>69513</v>
+      </c>
+      <c r="C78" t="n">
+        <v>64</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>85</v>
+      </c>
+      <c r="F78" t="n">
+        <v>69578</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>22.250.10.1</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>338679</v>
+      </c>
+      <c r="C79" t="n">
+        <v>176</v>
+      </c>
+      <c r="D79" t="n">
+        <v>25</v>
+      </c>
+      <c r="E79" t="n">
+        <v>460</v>
+      </c>
+      <c r="F79" t="n">
+        <v>338880</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>22.230.0.8</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>197772</v>
+      </c>
+      <c r="C80" t="n">
+        <v>166</v>
+      </c>
+      <c r="D80" t="n">
+        <v>59</v>
+      </c>
+      <c r="E80" t="n">
+        <v>206</v>
+      </c>
+      <c r="F80" t="n">
+        <v>197997</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>20.70.12.5</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>18710</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>11</v>
+      </c>
+      <c r="E81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F81" t="n">
+        <v>18721</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>23.70.2.3</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>90450</v>
+      </c>
+      <c r="C82" t="n">
+        <v>33</v>
+      </c>
+      <c r="D82" t="n">
+        <v>25</v>
+      </c>
+      <c r="E82" t="n">
+        <v>161</v>
+      </c>
+      <c r="F82" t="n">
+        <v>90508</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>21.40.2.2</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 7260 - 18.33.15.1</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>83189</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>84</v>
+      </c>
+      <c r="F83" t="n">
+        <v>83189</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 7260</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>18.33.15.1</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>100</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2018-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>52511</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>43</v>
+      </c>
+      <c r="F84" t="n">
+        <v>52515</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>21.10.1.2</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>100</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2019-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>13010</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>12</v>
+      </c>
+      <c r="F85" t="n">
+        <v>13016</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>21.30.4.1</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>100</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2019-07-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>26239</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>44</v>
+      </c>
+      <c r="F86" t="n">
+        <v>26241</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>100</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>68439</v>
+      </c>
+      <c r="C87" t="n">
+        <v>8</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>97</v>
+      </c>
+      <c r="F87" t="n">
+        <v>68450</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>22.10.0.7</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>100</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>10454</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10456</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>22.180.0.4</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>100</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>123628</v>
+      </c>
+      <c r="C89" t="n">
+        <v>43</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4</v>
+      </c>
+      <c r="E89" t="n">
+        <v>138</v>
+      </c>
+      <c r="F89" t="n">
+        <v>123675</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>22.80.1.1</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>100</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2021-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>14487</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>57</v>
+      </c>
+      <c r="F90" t="n">
+        <v>14487</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>22.150.0.3</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>100</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>11140</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>59</v>
+      </c>
+      <c r="F91" t="n">
+        <v>11140</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>22.150.3.1</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>100</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>18962</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>23</v>
+      </c>
+      <c r="F92" t="n">
+        <v>18967</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>20.70.27.1</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>100</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2021-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>67098</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>9</v>
+      </c>
+      <c r="E93" t="n">
+        <v>145</v>
+      </c>
+      <c r="F93" t="n">
+        <v>67111</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>22.30.0.11</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>100</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>65422</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>72</v>
+      </c>
+      <c r="F94" t="n">
+        <v>65425</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>100</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>323666</v>
+      </c>
+      <c r="C95" t="n">
+        <v>58</v>
+      </c>
+      <c r="D95" t="n">
+        <v>80</v>
+      </c>
+      <c r="E95" t="n">
+        <v>315</v>
+      </c>
+      <c r="F95" t="n">
+        <v>323804</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>20.50.0.5</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>100</v>
+      </c>
+      <c r="J95" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>35015</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>62</v>
+      </c>
+      <c r="F96" t="n">
+        <v>35023</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8260</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>20.70.16.4</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>100</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>11124</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>28</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11128</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>21.40.1.3</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>100</v>
+      </c>
+      <c r="J97" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>56003</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>15</v>
+      </c>
+      <c r="E98" t="n">
+        <v>62</v>
+      </c>
+      <c r="F98" t="n">
+        <v>56018</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>100</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>117615</v>
+      </c>
+      <c r="C99" t="n">
+        <v>24</v>
+      </c>
+      <c r="D99" t="n">
+        <v>14</v>
+      </c>
+      <c r="E99" t="n">
+        <v>151</v>
+      </c>
+      <c r="F99" t="n">
+        <v>117653</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>100</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>35341</v>
+      </c>
+      <c r="C100" t="n">
+        <v>11</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>80</v>
+      </c>
+      <c r="F100" t="n">
+        <v>35355</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>22.50.1.1</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>100</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/AMD_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,58 +487,58 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>72</v>
+        <v>600</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.18.2</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6605</v>
+        <v>1902</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>93.2</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.18.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>1318</v>
-      </c>
       <c r="D5" s="4" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="7">
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>98.09999999999999</v>
@@ -560,33 +560,33 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.1.1</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10</v>
+        <v>7003</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>7117</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="10">
@@ -599,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>98.90000000000001</v>
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15140</v>
+        <v>9532</v>
       </c>
     </row>
     <row r="12"/>
@@ -685,23 +685,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>376240</v>
+        <v>1869842</v>
       </c>
       <c r="C19" t="n">
-        <v>1104</v>
+        <v>3420</v>
       </c>
       <c r="D19" t="n">
-        <v>582</v>
+        <v>4386</v>
       </c>
       <c r="E19" t="n">
-        <v>594</v>
+        <v>2436</v>
       </c>
       <c r="F19" t="n">
-        <v>377926</v>
+        <v>1877648</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>22.250.0.4</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -718,30 +718,30 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1786148</v>
+        <v>8170878</v>
       </c>
       <c r="C20" t="n">
-        <v>3309</v>
+        <v>15867</v>
       </c>
       <c r="D20" t="n">
-        <v>4386</v>
+        <v>13188</v>
       </c>
       <c r="E20" t="n">
-        <v>2366</v>
+        <v>18436</v>
       </c>
       <c r="F20" t="n">
-        <v>1793843</v>
+        <v>8199933</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>22.40.0.7</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -758,30 +758,30 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7568454</v>
+        <v>1611822</v>
       </c>
       <c r="C21" t="n">
-        <v>14989</v>
+        <v>4793</v>
       </c>
       <c r="D21" t="n">
-        <v>13188</v>
+        <v>1136</v>
       </c>
       <c r="E21" t="n">
-        <v>16900</v>
+        <v>2996</v>
       </c>
       <c r="F21" t="n">
-        <v>7596631</v>
+        <v>1617751</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -798,7 +798,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
@@ -809,19 +809,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>290468</v>
+        <v>298304</v>
       </c>
       <c r="C22" t="n">
-        <v>898</v>
+        <v>925</v>
       </c>
       <c r="D22" t="n">
         <v>303</v>
       </c>
       <c r="E22" t="n">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F22" t="n">
-        <v>291669</v>
+        <v>299532</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -845,32 +845,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>214987</v>
+        <v>381616</v>
       </c>
       <c r="C23" t="n">
-        <v>511</v>
+        <v>1106</v>
       </c>
       <c r="D23" t="n">
-        <v>444</v>
+        <v>582</v>
       </c>
       <c r="E23" t="n">
-        <v>208</v>
+        <v>601</v>
       </c>
       <c r="F23" t="n">
-        <v>215942</v>
+        <v>383304</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>20.70.2.1</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -878,39 +878,39 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2018-08-13</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.23.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>826884</v>
+        <v>591074</v>
       </c>
       <c r="C24" t="n">
-        <v>2559</v>
+        <v>1100</v>
       </c>
       <c r="D24" t="n">
-        <v>884</v>
+        <v>1527</v>
       </c>
       <c r="E24" t="n">
-        <v>761</v>
+        <v>1267</v>
       </c>
       <c r="F24" t="n">
-        <v>830327</v>
+        <v>593701</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>20.70.23.1</t>
+          <t>23.30.0.6</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -918,39 +918,39 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2021-03-20</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54037</v>
+        <v>17609</v>
       </c>
       <c r="C25" t="n">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F25" t="n">
-        <v>54249</v>
+        <v>17678</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>22.180.0.4</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -958,30 +958,30 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>580825</v>
+        <v>84751</v>
       </c>
       <c r="C26" t="n">
-        <v>1091</v>
+        <v>312</v>
       </c>
       <c r="D26" t="n">
-        <v>1527</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>1250</v>
+        <v>105</v>
       </c>
       <c r="F26" t="n">
-        <v>583443</v>
+        <v>85067</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>23.30.0.6</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -998,39 +998,39 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.60.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.2.1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4228854</v>
+        <v>232347</v>
       </c>
       <c r="C27" t="n">
-        <v>12120</v>
+        <v>562</v>
       </c>
       <c r="D27" t="n">
-        <v>5504</v>
+        <v>444</v>
       </c>
       <c r="E27" t="n">
-        <v>5791</v>
+        <v>226</v>
       </c>
       <c r="F27" t="n">
-        <v>4246478</v>
+        <v>233353</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>23.60.1.2</t>
+          <t>20.70.2.1</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1038,39 +1038,39 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2018-08-13</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.21.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>114623</v>
+        <v>4430490</v>
       </c>
       <c r="C28" t="n">
-        <v>182</v>
+        <v>12730</v>
       </c>
       <c r="D28" t="n">
-        <v>243</v>
+        <v>5504</v>
       </c>
       <c r="E28" t="n">
-        <v>192</v>
+        <v>5946</v>
       </c>
       <c r="F28" t="n">
-        <v>115048</v>
+        <v>4448724</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>20.70.21.2</t>
+          <t>23.60.1.2</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1078,30 +1078,30 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2021-01-09</t>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17609</v>
+        <v>1293197</v>
       </c>
       <c r="C29" t="n">
-        <v>69</v>
+        <v>4322</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="E29" t="n">
-        <v>57</v>
+        <v>1990</v>
       </c>
       <c r="F29" t="n">
-        <v>17678</v>
+        <v>1298528</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>22.180.0.4</t>
+          <t>22.250.0.4</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1118,39 +1118,39 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.110.0.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3704651</v>
+        <v>415263</v>
       </c>
       <c r="C30" t="n">
-        <v>11842</v>
+        <v>488</v>
       </c>
       <c r="D30" t="n">
-        <v>1893</v>
+        <v>1136</v>
       </c>
       <c r="E30" t="n">
-        <v>4457</v>
+        <v>485</v>
       </c>
       <c r="F30" t="n">
-        <v>3718386</v>
+        <v>416887</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>22.110.0.2</t>
+          <t>22.150.1.1</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -1158,39 +1158,39 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2021-11-27</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>415263</v>
+        <v>31517</v>
       </c>
       <c r="C31" t="n">
-        <v>488</v>
+        <v>112</v>
       </c>
       <c r="D31" t="n">
-        <v>1136</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>485</v>
+        <v>66</v>
       </c>
       <c r="F31" t="n">
-        <v>416887</v>
+        <v>31629</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22.150.1.1</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1198,39 +1198,39 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.110.0.2</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1254472</v>
+        <v>3704651</v>
       </c>
       <c r="C32" t="n">
-        <v>4270</v>
+        <v>11842</v>
       </c>
       <c r="D32" t="n">
-        <v>1009</v>
+        <v>1893</v>
       </c>
       <c r="E32" t="n">
-        <v>1946</v>
+        <v>4457</v>
       </c>
       <c r="F32" t="n">
-        <v>1259751</v>
+        <v>3718386</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>22.110.0.2</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2021-11-27</t>
         </is>
       </c>
     </row>
@@ -1249,19 +1249,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>448248</v>
+        <v>467311</v>
       </c>
       <c r="C33" t="n">
-        <v>738</v>
+        <v>772</v>
       </c>
       <c r="D33" t="n">
         <v>931</v>
       </c>
       <c r="E33" t="n">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="F33" t="n">
-        <v>449917</v>
+        <v>469014</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1285,32 +1285,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>135485</v>
+        <v>455081</v>
       </c>
       <c r="C34" t="n">
-        <v>325</v>
+        <v>1861</v>
       </c>
       <c r="D34" t="n">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="E34" t="n">
-        <v>205</v>
+        <v>639</v>
       </c>
       <c r="F34" t="n">
-        <v>136013</v>
+        <v>456994</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>22.110.1.1</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -1318,39 +1318,39 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.23.1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>204134</v>
+        <v>917046</v>
       </c>
       <c r="C35" t="n">
-        <v>775</v>
+        <v>2912</v>
       </c>
       <c r="D35" t="n">
-        <v>52</v>
+        <v>884</v>
       </c>
       <c r="E35" t="n">
-        <v>319</v>
+        <v>829</v>
       </c>
       <c r="F35" t="n">
-        <v>204961</v>
+        <v>920842</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>20.70.23.1</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -1358,39 +1358,39 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2021-03-20</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28296</v>
+        <v>15942</v>
       </c>
       <c r="C36" t="n">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F36" t="n">
-        <v>28407</v>
+        <v>16002</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>22.80.1.1</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -1398,30 +1398,30 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30421</v>
+        <v>145537</v>
       </c>
       <c r="C37" t="n">
-        <v>124</v>
+        <v>325</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="E37" t="n">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="F37" t="n">
-        <v>30555</v>
+        <v>146065</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>21.50.1.1</t>
+          <t>22.110.1.1</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
@@ -1485,110 +1485,110 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.5</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32600</v>
+        <v>1787924</v>
       </c>
       <c r="C39" t="n">
-        <v>90</v>
+        <v>3326</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>2614</v>
       </c>
       <c r="E39" t="n">
-        <v>50</v>
+        <v>3038</v>
       </c>
       <c r="F39" t="n">
-        <v>32693</v>
+        <v>1793864</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>22.0.1.5</t>
+          <t>22.230.0.8</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>99.7</v>
       </c>
-      <c r="J39" t="n">
-        <v/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1734330</v>
+        <v>32600</v>
       </c>
       <c r="C40" t="n">
-        <v>2979</v>
+        <v>90</v>
       </c>
       <c r="D40" t="n">
-        <v>2614</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>2960</v>
+        <v>50</v>
       </c>
       <c r="F40" t="n">
-        <v>1739923</v>
+        <v>32693</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>22.230.0.8</t>
+          <t>22.0.1.5</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>99.7</v>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2023-05-08</t>
-        </is>
+      <c r="J40" t="n">
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.3.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1525948</v>
+        <v>218767</v>
       </c>
       <c r="C41" t="n">
-        <v>2540</v>
+        <v>334</v>
       </c>
       <c r="D41" t="n">
-        <v>1721</v>
+        <v>313</v>
       </c>
       <c r="E41" t="n">
-        <v>2082</v>
+        <v>573</v>
       </c>
       <c r="F41" t="n">
-        <v>1530209</v>
+        <v>219414</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>20.70.3.3</t>
+          <t>23.70.2.3</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -1596,39 +1596,39 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2018-09-02</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>77093</v>
+        <v>135467</v>
       </c>
       <c r="C42" t="n">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D42" t="n">
-        <v>24</v>
+        <v>263</v>
       </c>
       <c r="E42" t="n">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="F42" t="n">
-        <v>77287</v>
+        <v>135919</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.110.1.1</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -1636,39 +1636,39 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.3.3</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15355</v>
+        <v>1533125</v>
       </c>
       <c r="C43" t="n">
-        <v>50</v>
+        <v>2586</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>1721</v>
       </c>
       <c r="E43" t="n">
-        <v>62</v>
+        <v>2088</v>
       </c>
       <c r="F43" t="n">
-        <v>15408</v>
+        <v>1537432</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22.80.1.1</t>
+          <t>20.70.3.3</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -1676,39 +1676,39 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2018-09-02</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.24.1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>733616</v>
+        <v>25526</v>
       </c>
       <c r="C44" t="n">
-        <v>1647</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>507</v>
+        <v>43</v>
       </c>
       <c r="E44" t="n">
-        <v>1266</v>
+        <v>28</v>
       </c>
       <c r="F44" t="n">
-        <v>735770</v>
+        <v>25599</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>20.70.24.1</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -1716,39 +1716,39 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2021-05-09</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.21.2</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>134169</v>
+        <v>127788</v>
       </c>
       <c r="C45" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D45" t="n">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E45" t="n">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F45" t="n">
-        <v>134621</v>
+        <v>128214</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>22.110.1.1</t>
+          <t>20.70.21.2</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -1756,39 +1756,39 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-01-09</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>210370</v>
+        <v>335610</v>
       </c>
       <c r="C46" t="n">
-        <v>324</v>
+        <v>495</v>
       </c>
       <c r="D46" t="n">
-        <v>313</v>
+        <v>530</v>
       </c>
       <c r="E46" t="n">
-        <v>558</v>
+        <v>414</v>
       </c>
       <c r="F46" t="n">
-        <v>211007</v>
+        <v>336635</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>23.70.2.3</t>
+          <t>22.90.0.5</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -1796,30 +1796,30 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1159949</v>
+        <v>750778</v>
       </c>
       <c r="C47" t="n">
-        <v>2346</v>
+        <v>1655</v>
       </c>
       <c r="D47" t="n">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="E47" t="n">
-        <v>1850</v>
+        <v>1290</v>
       </c>
       <c r="F47" t="n">
-        <v>1162878</v>
+        <v>752940</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>22.170.0.3</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -1836,30 +1836,30 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2022-08-28</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>192287</v>
+        <v>1021828</v>
       </c>
       <c r="C48" t="n">
-        <v>421</v>
+        <v>2379</v>
       </c>
       <c r="D48" t="n">
-        <v>70</v>
+        <v>1006</v>
       </c>
       <c r="E48" t="n">
-        <v>390</v>
+        <v>1021</v>
       </c>
       <c r="F48" t="n">
-        <v>192778</v>
+        <v>1025213</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.20.0.6</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -1876,39 +1876,39 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.24.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>25526</v>
+        <v>100380</v>
       </c>
       <c r="C49" t="n">
+        <v>264</v>
+      </c>
+      <c r="D49" t="n">
         <v>30</v>
       </c>
-      <c r="D49" t="n">
-        <v>43</v>
-      </c>
       <c r="E49" t="n">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="F49" t="n">
-        <v>25599</v>
+        <v>100674</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>20.70.24.1</t>
+          <t>22.60.0.6</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -1916,117 +1916,117 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 7260 - 18.33.17.1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1335506</v>
+        <v>477663</v>
       </c>
       <c r="C50" t="n">
-        <v>2486</v>
+        <v>777</v>
       </c>
       <c r="D50" t="n">
-        <v>1863</v>
+        <v>728</v>
       </c>
       <c r="E50" t="n">
-        <v>1463</v>
+        <v>541</v>
       </c>
       <c r="F50" t="n">
-        <v>1339855</v>
+        <v>479168</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) dual band wireless-ac 7260</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>21.10.2.2</t>
+          <t>18.33.17.1</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>99.7</v>
       </c>
-      <c r="J50" t="n">
-        <v/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2019-04-28</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1499724</v>
+        <v>1336938</v>
       </c>
       <c r="C51" t="n">
-        <v>4069</v>
+        <v>2486</v>
       </c>
       <c r="D51" t="n">
-        <v>1136</v>
+        <v>1863</v>
       </c>
       <c r="E51" t="n">
-        <v>2789</v>
+        <v>1464</v>
       </c>
       <c r="F51" t="n">
-        <v>1504929</v>
+        <v>1341287</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>21.10.2.2</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>99.7</v>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
-        </is>
+      <c r="J51" t="n">
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>330685</v>
+        <v>77093</v>
       </c>
       <c r="C52" t="n">
-        <v>445</v>
+        <v>170</v>
       </c>
       <c r="D52" t="n">
-        <v>530</v>
+        <v>24</v>
       </c>
       <c r="E52" t="n">
-        <v>410</v>
+        <v>127</v>
       </c>
       <c r="F52" t="n">
-        <v>331660</v>
+        <v>77287</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>22.90.0.5</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -2034,30 +2034,30 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>938125</v>
+        <v>195464</v>
       </c>
       <c r="C53" t="n">
-        <v>2222</v>
+        <v>430</v>
       </c>
       <c r="D53" t="n">
-        <v>1006</v>
+        <v>70</v>
       </c>
       <c r="E53" t="n">
-        <v>959</v>
+        <v>401</v>
       </c>
       <c r="F53" t="n">
-        <v>941353</v>
+        <v>195964</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>22.20.0.6</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -2074,79 +2074,79 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7260 - 18.33.17.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.60.0.6</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>462479</v>
+        <v>50997</v>
       </c>
       <c r="C54" t="n">
-        <v>761</v>
+        <v>100</v>
       </c>
       <c r="D54" t="n">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>530</v>
+        <v>62</v>
       </c>
       <c r="F54" t="n">
-        <v>463968</v>
+        <v>51097</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 7260</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>18.33.17.1</t>
+          <t>22.60.0.6</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>50997</v>
+        <v>240434</v>
       </c>
       <c r="C55" t="n">
-        <v>100</v>
+        <v>421</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E55" t="n">
-        <v>62</v>
+        <v>409</v>
       </c>
       <c r="F55" t="n">
-        <v>51097</v>
+        <v>240892</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>22.60.0.6</t>
+          <t>23.100.0.4</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
@@ -2165,19 +2165,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>140350</v>
+        <v>151287</v>
       </c>
       <c r="C56" t="n">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D56" t="n">
         <v>75</v>
       </c>
       <c r="E56" t="n">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="F56" t="n">
-        <v>140695</v>
+        <v>151647</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2201,23 +2201,23 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>57477</v>
+        <v>19655</v>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="E57" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F57" t="n">
-        <v>57611</v>
+        <v>19689</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -2234,39 +2234,39 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>230530</v>
+        <v>57999</v>
       </c>
       <c r="C58" t="n">
-        <v>421</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="E58" t="n">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="F58" t="n">
-        <v>230988</v>
+        <v>58133</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -2274,39 +2274,39 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.25.2</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>67722</v>
+        <v>459839</v>
       </c>
       <c r="C59" t="n">
-        <v>120</v>
+        <v>433</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="E59" t="n">
-        <v>111</v>
+        <v>586</v>
       </c>
       <c r="F59" t="n">
-        <v>67843</v>
+        <v>460950</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>22.140.0.3</t>
+          <t>20.70.25.2</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -2314,39 +2314,39 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2021-06-21</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.30.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1753550</v>
+        <v>1833336</v>
       </c>
       <c r="C60" t="n">
-        <v>2157</v>
+        <v>2376</v>
       </c>
       <c r="D60" t="n">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="E60" t="n">
-        <v>2287</v>
+        <v>1899</v>
       </c>
       <c r="F60" t="n">
-        <v>1756388</v>
+        <v>1836368</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>20.70.30.1</t>
+          <t>22.0.0.6</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>95095</v>
+        <v>1237156</v>
       </c>
       <c r="C61" t="n">
-        <v>191</v>
+        <v>2499</v>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>583</v>
       </c>
       <c r="E61" t="n">
-        <v>247</v>
+        <v>1951</v>
       </c>
       <c r="F61" t="n">
-        <v>95316</v>
+        <v>1240238</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>22.60.0.6</t>
+          <t>22.170.0.3</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -2394,39 +2394,39 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.30.1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1731609</v>
+        <v>1848423</v>
       </c>
       <c r="C62" t="n">
-        <v>2149</v>
+        <v>2191</v>
       </c>
       <c r="D62" t="n">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="E62" t="n">
-        <v>1812</v>
+        <v>2383</v>
       </c>
       <c r="F62" t="n">
-        <v>1734414</v>
+        <v>1851295</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>22.0.0.6</t>
+          <t>20.70.30.1</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -2434,39 +2434,39 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2022-01-12</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.25.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>456550</v>
+        <v>67832</v>
       </c>
       <c r="C63" t="n">
-        <v>433</v>
+        <v>121</v>
       </c>
       <c r="D63" t="n">
-        <v>678</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>581</v>
+        <v>115</v>
       </c>
       <c r="F63" t="n">
-        <v>457661</v>
+        <v>67954</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>20.70.25.2</t>
+          <t>22.140.0.3</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -2474,30 +2474,30 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>19654</v>
+        <v>23413</v>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D64" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E64" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F64" t="n">
-        <v>19688</v>
+        <v>23462</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>23.70.2.3</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -2514,39 +2514,39 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7260 - 18.33.14.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>134485</v>
+        <v>63994</v>
       </c>
       <c r="C65" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D65" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="E65" t="n">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="F65" t="n">
-        <v>134707</v>
+        <v>64101</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 7260</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>18.33.14.3</t>
+          <t>21.80.0.4</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -2554,39 +2554,39 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2018-09-02</t>
+          <t>2020-01-29</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>269204</v>
+        <v>81417</v>
       </c>
       <c r="C66" t="n">
-        <v>337</v>
+        <v>107</v>
       </c>
       <c r="D66" t="n">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="E66" t="n">
-        <v>632</v>
+        <v>158</v>
       </c>
       <c r="F66" t="n">
-        <v>269687</v>
+        <v>81549</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>21.120.0.9</t>
+          <t>22.80.0.9</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -2594,39 +2594,39 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 7260 - 18.33.14.3</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1296766</v>
+        <v>137357</v>
       </c>
       <c r="C67" t="n">
-        <v>1864</v>
+        <v>80</v>
       </c>
       <c r="D67" t="n">
-        <v>1075</v>
+        <v>142</v>
       </c>
       <c r="E67" t="n">
-        <v>2887</v>
+        <v>160</v>
       </c>
       <c r="F67" t="n">
-        <v>1299705</v>
+        <v>137579</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 7260</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>18.33.14.3</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -2634,39 +2634,39 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2018-09-02</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>389283</v>
+        <v>301043</v>
       </c>
       <c r="C68" t="n">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="D68" t="n">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="E68" t="n">
-        <v>1233</v>
+        <v>702</v>
       </c>
       <c r="F68" t="n">
-        <v>389927</v>
+        <v>301577</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>21.120.0.9</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -2674,30 +2674,30 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>63994</v>
+        <v>1400496</v>
       </c>
       <c r="C69" t="n">
-        <v>66</v>
+        <v>2029</v>
       </c>
       <c r="D69" t="n">
-        <v>41</v>
+        <v>1075</v>
       </c>
       <c r="E69" t="n">
-        <v>68</v>
+        <v>3210</v>
       </c>
       <c r="F69" t="n">
-        <v>64101</v>
+        <v>1403600</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>21.80.0.4</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -2714,30 +2714,30 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>79835</v>
+        <v>393045</v>
       </c>
       <c r="C70" t="n">
-        <v>93</v>
+        <v>453</v>
       </c>
       <c r="D70" t="n">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="E70" t="n">
-        <v>153</v>
+        <v>1251</v>
       </c>
       <c r="F70" t="n">
-        <v>79953</v>
+        <v>393714</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2746,47 +2746,47 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>22.80.0.9</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>485568</v>
+        <v>272039</v>
       </c>
       <c r="C71" t="n">
-        <v>468</v>
+        <v>213</v>
       </c>
       <c r="D71" t="n">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="E71" t="n">
-        <v>568</v>
+        <v>316</v>
       </c>
       <c r="F71" t="n">
-        <v>486214</v>
+        <v>272383</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>22.100.1.1</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -2794,39 +2794,39 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>286753</v>
+        <v>509717</v>
       </c>
       <c r="C72" t="n">
-        <v>288</v>
+        <v>522</v>
       </c>
       <c r="D72" t="n">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="E72" t="n">
-        <v>309</v>
+        <v>590</v>
       </c>
       <c r="F72" t="n">
-        <v>287148</v>
+        <v>510417</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>23.100.0.4</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -2834,79 +2834,77 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>143738</v>
+        <v>11362</v>
       </c>
       <c r="C73" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="F73" t="n">
-        <v>143869</v>
+        <v>11369</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>22.200.0.6</t>
+          <t>21.40.1.3</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
-        </is>
+      <c r="J73" t="n">
+        <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>160395</v>
+        <v>69513</v>
       </c>
       <c r="C74" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D74" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="F74" t="n">
-        <v>160536</v>
+        <v>69578</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>20.70.5.2</t>
+          <t>22.250.10.1</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -2914,30 +2912,30 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>96477</v>
+        <v>16252</v>
       </c>
       <c r="C75" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D75" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="F75" t="n">
-        <v>96526</v>
+        <v>16274</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2946,7 +2944,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>22.160.0.4</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -2954,30 +2952,30 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>15712</v>
+        <v>305670</v>
       </c>
       <c r="C76" t="n">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E76" t="n">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="F76" t="n">
-        <v>15734</v>
+        <v>306081</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2986,7 +2984,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -2994,39 +2992,39 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>265066</v>
+        <v>153442</v>
       </c>
       <c r="C77" t="n">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="D77" t="n">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="E77" t="n">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="F77" t="n">
-        <v>265400</v>
+        <v>153573</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>22.100.1.1</t>
+          <t>22.200.0.6</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -3034,30 +3032,30 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>69513</v>
+        <v>348742</v>
       </c>
       <c r="C78" t="n">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E78" t="n">
-        <v>85</v>
+        <v>467</v>
       </c>
       <c r="F78" t="n">
-        <v>69578</v>
+        <v>348943</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3066,7 +3064,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>22.250.10.1</t>
+          <t>22.230.0.8</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -3074,39 +3072,39 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>338679</v>
+        <v>181332</v>
       </c>
       <c r="C79" t="n">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="E79" t="n">
-        <v>460</v>
+        <v>191</v>
       </c>
       <c r="F79" t="n">
-        <v>338880</v>
+        <v>181479</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>22.230.0.8</t>
+          <t>20.70.5.2</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -3114,7 +3112,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>
@@ -3125,19 +3123,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>197772</v>
+        <v>216735</v>
       </c>
       <c r="C80" t="n">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D80" t="n">
         <v>59</v>
       </c>
       <c r="E80" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="F80" t="n">
-        <v>197997</v>
+        <v>216985</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3161,23 +3159,23 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>18710</v>
+        <v>90450</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D81" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E81" t="n">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="F81" t="n">
-        <v>18721</v>
+        <v>90508</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3186,7 +3184,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>23.70.2.3</t>
+          <t>21.40.2.2</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -3194,30 +3192,30 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>90450</v>
+        <v>13010</v>
       </c>
       <c r="C82" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>90508</v>
+        <v>13016</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3226,47 +3224,47 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>21.40.2.2</t>
+          <t>21.30.4.1</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7260 - 18.33.15.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>83189</v>
+        <v>62512</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F83" t="n">
-        <v>83189</v>
+        <v>62516</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 7260</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>18.33.15.1</t>
+          <t>21.10.1.2</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -3274,39 +3272,39 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2018-11-10</t>
+          <t>2019-04-23</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>52511</v>
+        <v>10454</v>
       </c>
       <c r="C84" t="n">
         <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F84" t="n">
-        <v>52515</v>
+        <v>10456</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>21.10.1.2</t>
+          <t>22.180.0.4</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -3314,39 +3312,39 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>13010</v>
+        <v>123628</v>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="F85" t="n">
-        <v>13016</v>
+        <v>123675</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>21.30.4.1</t>
+          <t>22.80.1.1</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -3354,7 +3352,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2021-09-11</t>
         </is>
       </c>
     </row>
@@ -3441,32 +3439,32 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>10454</v>
+        <v>104290</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E88" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F88" t="n">
-        <v>10456</v>
+        <v>104341</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>22.180.0.4</t>
+          <t>22.160.0.4</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -3474,39 +3472,39 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>123628</v>
+        <v>67098</v>
       </c>
       <c r="C89" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E89" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F89" t="n">
-        <v>123675</v>
+        <v>67111</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>22.80.1.1</t>
+          <t>22.30.0.11</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -3514,39 +3512,39 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>14487</v>
+        <v>20394</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F90" t="n">
-        <v>14487</v>
+        <v>20399</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>22.150.0.3</t>
+          <t>20.70.27.1</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -3554,18 +3552,18 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2021-09-11</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>11140</v>
+        <v>14561</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -3577,7 +3575,7 @@
         <v>59</v>
       </c>
       <c r="F91" t="n">
-        <v>11140</v>
+        <v>14561</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3586,7 +3584,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>22.150.3.1</t>
+          <t>22.150.0.3</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -3594,39 +3592,39 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>18962</v>
+        <v>12018</v>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F92" t="n">
-        <v>18967</v>
+        <v>12018</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>20.70.27.1</t>
+          <t>22.150.3.1</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -3634,79 +3632,77 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>67098</v>
+        <v>351989</v>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D93" t="n">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E93" t="n">
-        <v>145</v>
+        <v>336</v>
       </c>
       <c r="F93" t="n">
-        <v>67111</v>
+        <v>352128</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>22.30.0.11</t>
+          <t>20.50.0.5</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>100</v>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
-        </is>
+      <c r="J93" t="n">
+        <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>65422</v>
+        <v>35015</v>
       </c>
       <c r="C94" t="n">
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E94" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F94" t="n">
-        <v>65425</v>
+        <v>35023</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8260</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>20.70.16.4</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -3714,77 +3710,79 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-12-31</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>323666</v>
+        <v>75454</v>
       </c>
       <c r="C95" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="F95" t="n">
-        <v>323804</v>
+        <v>75457</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>20.50.0.5</t>
+          <t>21.110.3.2</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>100</v>
       </c>
-      <c r="J95" t="n">
-        <v/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>35015</v>
+        <v>56003</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E96" t="n">
         <v>62</v>
       </c>
       <c r="F96" t="n">
-        <v>35023</v>
+        <v>56018</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8260</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>20.70.16.4</t>
+          <t>21.60.2.1</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -3792,30 +3790,30 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>11124</v>
+        <v>121310</v>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E97" t="n">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="F97" t="n">
-        <v>11128</v>
+        <v>121350</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3824,36 +3822,38 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>21.40.1.3</t>
+          <t>21.70.0.6</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>100</v>
       </c>
-      <c r="J97" t="n">
-        <v/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>56003</v>
+        <v>35363</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D98" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E98" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F98" t="n">
-        <v>56018</v>
+        <v>35377</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>21.60.2.1</t>
+          <t>22.50.1.1</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -3870,39 +3870,39 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 7260 - 18.33.15.1</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>117615</v>
+        <v>84471</v>
       </c>
       <c r="C99" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="F99" t="n">
-        <v>117653</v>
+        <v>84471</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 7260</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>21.70.0.6</t>
+          <t>18.33.15.1</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -3910,47 +3910,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>35341</v>
-      </c>
-      <c r="C100" t="n">
-        <v>11</v>
-      </c>
-      <c r="D100" t="n">
-        <v>3</v>
-      </c>
-      <c r="E100" t="n">
-        <v>80</v>
-      </c>
-      <c r="F100" t="n">
-        <v>35355</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>22.50.1.1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>100</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
+          <t>2018-11-10</t>
         </is>
       </c>
     </row>
